--- a/MTProject/TestData/searchdata.xlsx
+++ b/MTProject/TestData/searchdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79B308CF-109D-4AD9-9E77-C9A863828287}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA091E-CA39-4E6F-A821-8AA2F317CFCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="4140" xr2:uid="{2E61AABF-50B8-4EBA-AF61-2F40CC6AD006}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -54,27 +54,6 @@
     <t>Issueauthority</t>
   </si>
   <si>
-    <t>Disability_status</t>
-  </si>
-  <si>
-    <t>Disability_duration</t>
-  </si>
-  <si>
-    <t>Apprentice_card</t>
-  </si>
-  <si>
-    <t>Staff_indicator</t>
-  </si>
-  <si>
-    <t>Staff_number</t>
-  </si>
-  <si>
-    <t>Staff_ pass_type</t>
-  </si>
-  <si>
-    <t>Staff_job_title</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -93,12 +72,6 @@
     <t>Liverpool</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Eld*</t>
-  </si>
-  <si>
     <t>L11 5BL</t>
   </si>
   <si>
@@ -114,19 +87,16 @@
     <t>L3 1BP</t>
   </si>
   <si>
-    <t>Blind / Partially Sighted</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
     <t>07/03/1955</t>
   </si>
   <si>
-    <t>Lo*</t>
-  </si>
-  <si>
     <t>Disa*</t>
+  </si>
+  <si>
+    <t>*der*</t>
+  </si>
+  <si>
+    <t>*L</t>
   </si>
 </sst>
 </file>
@@ -494,18 +464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F784F54-5B5D-44BC-8B57-09ECE448F584}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,180 +504,96 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="M4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
